--- a/CW_1_WAHADŁO_FIZYCZNE/Excel.xlsx
+++ b/CW_1_WAHADŁO_FIZYCZNE/Excel.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>l.p</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>przez pierw</t>
+  </si>
+  <si>
+    <t>okres ogr</t>
   </si>
 </sst>
 </file>
@@ -404,8 +407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -416,7 +419,7 @@
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.88671875" customWidth="1"/>
     <col min="7" max="7" width="18.33203125" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" customWidth="1"/>
     <col min="9" max="9" width="13.5546875" customWidth="1"/>
     <col min="10" max="10" width="11.33203125" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
@@ -435,6 +438,9 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
       <c r="I1" t="s">
         <v>4</v>
       </c>
@@ -458,6 +464,10 @@
       <c r="D2">
         <v>0.61571428571428566</v>
       </c>
+      <c r="E2">
+        <f>ROUND(D2,4)</f>
+        <v>0.61570000000000003</v>
+      </c>
       <c r="I2" t="s">
         <v>5</v>
       </c>
@@ -481,6 +491,14 @@
       <c r="D3">
         <v>0.61199999999999999</v>
       </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E21" si="0">ROUND(D3,4)</f>
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="F3">
+        <f>AVERAGE(E2:E21)</f>
+        <v>0.59991499999999998</v>
+      </c>
       <c r="I3" t="s">
         <v>6</v>
       </c>
@@ -504,6 +522,10 @@
       <c r="D4">
         <v>0.59961538461538466</v>
       </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>0.59960000000000002</v>
+      </c>
       <c r="I4" t="s">
         <v>7</v>
       </c>
@@ -524,6 +546,10 @@
       <c r="D5">
         <v>0.621</v>
       </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>0.621</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -538,6 +564,10 @@
       <c r="D6">
         <v>0.59150000000000003</v>
       </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0.59150000000000003</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -552,6 +582,10 @@
       <c r="D7">
         <v>0.5945454545454546</v>
       </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0.59450000000000003</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -566,6 +600,10 @@
       <c r="D8">
         <v>0.60222222222222233</v>
       </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0.60219999999999996</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -580,6 +618,10 @@
       <c r="D9">
         <v>0.60304347826086957</v>
       </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0.60299999999999998</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -594,6 +636,10 @@
       <c r="D10">
         <v>0.58875</v>
       </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0.58879999999999999</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -608,6 +654,10 @@
       <c r="D11">
         <v>0.59571428571428575</v>
       </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>0.59570000000000001</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -622,6 +672,10 @@
       <c r="D12">
         <v>0.58920000000000006</v>
       </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>0.58919999999999995</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -636,6 +690,10 @@
       <c r="D13">
         <v>0.5988</v>
       </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>0.5988</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -650,6 +708,10 @@
       <c r="D14">
         <v>0.59772727272727277</v>
       </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>0.59770000000000001</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -664,6 +726,10 @@
       <c r="D15">
         <v>0.59000000000000008</v>
       </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>0.59</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
@@ -678,6 +744,10 @@
       <c r="D16">
         <v>0.59888888888888892</v>
       </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>0.59889999999999999</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
@@ -692,6 +762,10 @@
       <c r="D17">
         <v>0.60619047619047617</v>
       </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>0.60619999999999996</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
@@ -706,6 +780,10 @@
       <c r="D18">
         <v>0.60086956521739132</v>
       </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>0.60089999999999999</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
@@ -720,6 +798,10 @@
       <c r="D19">
         <v>0.59750000000000003</v>
       </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>0.59750000000000003</v>
+      </c>
       <c r="G19" t="s">
         <v>11</v>
       </c>
@@ -746,6 +828,10 @@
       <c r="D20">
         <v>0.59954545454545449</v>
       </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>0.59950000000000003</v>
+      </c>
       <c r="G20">
         <v>9.7245926236192749E-4</v>
       </c>
@@ -778,6 +864,10 @@
       <c r="D21">
         <v>0.59560000000000002</v>
       </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>0.59560000000000002</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
@@ -787,6 +877,9 @@
         <f>AVERAGE(D2:D21)</f>
         <v>0.59992133843209916</v>
       </c>
+      <c r="K24">
+        <v>5.3780095695260903E-5</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
@@ -802,6 +895,10 @@
       </c>
       <c r="C26" t="s">
         <v>15</v>
+      </c>
+      <c r="H26">
+        <f>2*SQRT(J31^2  +  I34^2)</f>
+        <v>1.0365250054910867E-2</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -943,6 +1040,9 @@
         <f>(B36-C$24)^2</f>
         <v>4.4430997349409972E-4</v>
       </c>
+      <c r="K36">
+        <v>1.35313738382837E-5</v>
+      </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37">
@@ -952,6 +1052,9 @@
         <f>(B37-C$24)^2</f>
         <v>7.0918940987949915E-5</v>
       </c>
+      <c r="H37">
+        <v>1.35313738382837E-5</v>
+      </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B38">
@@ -960,6 +1063,10 @@
       <c r="C38">
         <f>(B38-C$24)^2</f>
         <v>2.8900127562684636E-5</v>
+      </c>
+      <c r="K38">
+        <f>SQRT(SUM(K35:K37))</f>
+        <v>3.6785015751367705E-3</v>
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.3">
